--- a/excel/finished/6高炉/高炉本体温度月报表.xlsx
+++ b/excel/finished/6高炉/高炉本体温度月报表.xlsx
@@ -2158,7 +2158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2321,39 +2321,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2409,18 +2381,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2430,15 +2409,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2748,763 +2718,763 @@
   <dimension ref="A1:LS39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:331" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:331" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="32"/>
-      <c r="BK2" s="32"/>
-      <c r="BL2" s="32"/>
-      <c r="BM2" s="32"/>
-      <c r="BN2" s="32"/>
-      <c r="BO2" s="32"/>
-      <c r="BP2" s="32"/>
-      <c r="BQ2" s="32"/>
-      <c r="BR2" s="32"/>
-      <c r="BS2" s="32"/>
-      <c r="BT2" s="32"/>
-      <c r="BU2" s="32"/>
-      <c r="BV2" s="32"/>
-      <c r="BW2" s="32"/>
-      <c r="BX2" s="32"/>
-      <c r="BY2" s="32"/>
-      <c r="BZ2" s="32"/>
-      <c r="CA2" s="32"/>
-      <c r="CB2" s="32"/>
-      <c r="CC2" s="32"/>
-      <c r="CD2" s="32"/>
-      <c r="CE2" s="32"/>
-      <c r="CF2" s="32"/>
-      <c r="CG2" s="32"/>
-      <c r="CH2" s="32"/>
-      <c r="CI2" s="32"/>
-      <c r="CJ2" s="32"/>
-      <c r="CK2" s="32"/>
-      <c r="CL2" s="32"/>
-      <c r="CM2" s="32"/>
-      <c r="CN2" s="32"/>
-      <c r="CO2" s="32"/>
-      <c r="CP2" s="32"/>
-      <c r="CQ2" s="32"/>
-      <c r="CR2" s="32"/>
-      <c r="CS2" s="32"/>
-      <c r="CT2" s="32"/>
-      <c r="CU2" s="32"/>
-      <c r="CV2" s="32"/>
-      <c r="CW2" s="32"/>
-      <c r="CX2" s="32"/>
-      <c r="CY2" s="32"/>
-      <c r="CZ2" s="32"/>
-      <c r="DA2" s="32"/>
-      <c r="DB2" s="32"/>
-      <c r="DC2" s="32"/>
-      <c r="DD2" s="32"/>
-      <c r="DE2" s="32"/>
-      <c r="DF2" s="32"/>
-      <c r="DG2" s="32"/>
-      <c r="DH2" s="32"/>
-      <c r="DI2" s="32"/>
-      <c r="DJ2" s="32"/>
-      <c r="DK2" s="32"/>
-      <c r="DL2" s="32"/>
-      <c r="DM2" s="32"/>
-      <c r="DN2" s="32"/>
-      <c r="DO2" s="32"/>
-      <c r="DP2" s="32"/>
-      <c r="DQ2" s="32"/>
-      <c r="DR2" s="32"/>
-      <c r="DS2" s="32"/>
-      <c r="DT2" s="32"/>
-      <c r="DU2" s="32"/>
-      <c r="DV2" s="32"/>
-      <c r="DW2" s="32"/>
-      <c r="DX2" s="32"/>
-      <c r="DY2" s="32"/>
-      <c r="DZ2" s="32"/>
-      <c r="EA2" s="32"/>
-      <c r="EB2" s="32"/>
-      <c r="EC2" s="32"/>
-      <c r="ED2" s="32"/>
-      <c r="EE2" s="32"/>
-      <c r="EF2" s="32"/>
-      <c r="EG2" s="32"/>
-      <c r="EH2" s="32"/>
-      <c r="EI2" s="32"/>
-      <c r="EJ2" s="32"/>
-      <c r="EK2" s="32"/>
-      <c r="EL2" s="32"/>
-      <c r="EM2" s="32"/>
-      <c r="EN2" s="32"/>
-      <c r="EO2" s="32"/>
-      <c r="EP2" s="32"/>
-      <c r="EQ2" s="32"/>
-      <c r="ER2" s="32"/>
-      <c r="ES2" s="32"/>
-      <c r="ET2" s="32"/>
-      <c r="EU2" s="32"/>
-      <c r="EV2" s="32"/>
-      <c r="EW2" s="32"/>
-      <c r="EX2" s="32"/>
-      <c r="EY2" s="32"/>
-      <c r="EZ2" s="32"/>
-      <c r="FA2" s="32"/>
-      <c r="FB2" s="32"/>
-      <c r="FC2" s="32"/>
-      <c r="FD2" s="32"/>
-      <c r="FE2" s="32"/>
-      <c r="FF2" s="32"/>
-      <c r="FG2" s="32"/>
-      <c r="FH2" s="32"/>
-      <c r="FI2" s="32"/>
-      <c r="FJ2" s="32"/>
-      <c r="FK2" s="32"/>
-      <c r="FL2" s="32"/>
-      <c r="FM2" s="32"/>
-      <c r="FN2" s="32"/>
-      <c r="FO2" s="32"/>
-      <c r="FP2" s="32"/>
-      <c r="FQ2" s="32"/>
-      <c r="FR2" s="32"/>
-      <c r="FS2" s="32"/>
-      <c r="FT2" s="32"/>
-      <c r="FU2" s="32"/>
-      <c r="FV2" s="32"/>
-      <c r="FW2" s="32"/>
-      <c r="FX2" s="32"/>
-      <c r="FY2" s="32"/>
-      <c r="FZ2" s="32"/>
-      <c r="GA2" s="32"/>
-      <c r="GB2" s="32"/>
-      <c r="GC2" s="32"/>
-      <c r="GD2" s="32"/>
-      <c r="GE2" s="32"/>
-      <c r="GF2" s="32"/>
-      <c r="GG2" s="32"/>
-      <c r="GH2" s="32"/>
-      <c r="GI2" s="32"/>
-      <c r="GJ2" s="32"/>
-      <c r="GK2" s="32"/>
-      <c r="GL2" s="32"/>
-      <c r="GM2" s="32"/>
-      <c r="GN2" s="32"/>
-      <c r="GO2" s="32"/>
-      <c r="GP2" s="32"/>
-      <c r="GQ2" s="32"/>
-      <c r="GR2" s="32"/>
-      <c r="GS2" s="32"/>
-      <c r="GT2" s="32"/>
-      <c r="GU2" s="32"/>
-      <c r="GV2" s="32"/>
-      <c r="GW2" s="32"/>
-      <c r="GX2" s="32"/>
-      <c r="GY2" s="32"/>
-      <c r="GZ2" s="32"/>
-      <c r="HA2" s="32"/>
-      <c r="HB2" s="32"/>
-      <c r="HC2" s="32"/>
-      <c r="HD2" s="32"/>
-      <c r="HE2" s="32"/>
-      <c r="HF2" s="32"/>
-      <c r="HG2" s="32"/>
-      <c r="HH2" s="32"/>
-      <c r="HI2" s="32"/>
-      <c r="HJ2" s="32"/>
-      <c r="HK2" s="32"/>
-      <c r="HL2" s="32"/>
-      <c r="HM2" s="32"/>
-      <c r="HN2" s="32"/>
-      <c r="HO2" s="32"/>
-      <c r="HP2" s="32"/>
-      <c r="HQ2" s="32"/>
-      <c r="HR2" s="32"/>
-      <c r="HS2" s="32"/>
-      <c r="HT2" s="32"/>
-      <c r="HU2" s="32"/>
-      <c r="HV2" s="32"/>
-      <c r="HW2" s="32"/>
-      <c r="HX2" s="32"/>
-      <c r="HY2" s="32"/>
-      <c r="HZ2" s="32"/>
-      <c r="IA2" s="32"/>
-      <c r="IB2" s="32"/>
-      <c r="IC2" s="32"/>
-      <c r="ID2" s="32"/>
-      <c r="IE2" s="32"/>
-      <c r="IF2" s="32"/>
-      <c r="IG2" s="32"/>
-      <c r="IH2" s="32"/>
-      <c r="II2" s="32"/>
-      <c r="IJ2" s="32"/>
-      <c r="IK2" s="32"/>
-      <c r="IL2" s="32"/>
-      <c r="IM2" s="32"/>
-      <c r="IN2" s="32"/>
-      <c r="IO2" s="32"/>
-      <c r="IP2" s="32"/>
-      <c r="IQ2" s="32"/>
-      <c r="IR2" s="32"/>
-      <c r="IS2" s="32"/>
-      <c r="IT2" s="32"/>
-      <c r="IU2" s="32"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="23"/>
+      <c r="BK2" s="23"/>
+      <c r="BL2" s="23"/>
+      <c r="BM2" s="23"/>
+      <c r="BN2" s="23"/>
+      <c r="BO2" s="23"/>
+      <c r="BP2" s="23"/>
+      <c r="BQ2" s="23"/>
+      <c r="BR2" s="23"/>
+      <c r="BS2" s="23"/>
+      <c r="BT2" s="23"/>
+      <c r="BU2" s="23"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="23"/>
+      <c r="BX2" s="23"/>
+      <c r="BY2" s="23"/>
+      <c r="BZ2" s="23"/>
+      <c r="CA2" s="23"/>
+      <c r="CB2" s="23"/>
+      <c r="CC2" s="23"/>
+      <c r="CD2" s="23"/>
+      <c r="CE2" s="23"/>
+      <c r="CF2" s="23"/>
+      <c r="CG2" s="23"/>
+      <c r="CH2" s="23"/>
+      <c r="CI2" s="23"/>
+      <c r="CJ2" s="23"/>
+      <c r="CK2" s="23"/>
+      <c r="CL2" s="23"/>
+      <c r="CM2" s="23"/>
+      <c r="CN2" s="23"/>
+      <c r="CO2" s="23"/>
+      <c r="CP2" s="23"/>
+      <c r="CQ2" s="23"/>
+      <c r="CR2" s="23"/>
+      <c r="CS2" s="23"/>
+      <c r="CT2" s="23"/>
+      <c r="CU2" s="23"/>
+      <c r="CV2" s="23"/>
+      <c r="CW2" s="23"/>
+      <c r="CX2" s="23"/>
+      <c r="CY2" s="23"/>
+      <c r="CZ2" s="23"/>
+      <c r="DA2" s="23"/>
+      <c r="DB2" s="23"/>
+      <c r="DC2" s="23"/>
+      <c r="DD2" s="23"/>
+      <c r="DE2" s="23"/>
+      <c r="DF2" s="23"/>
+      <c r="DG2" s="23"/>
+      <c r="DH2" s="23"/>
+      <c r="DI2" s="23"/>
+      <c r="DJ2" s="23"/>
+      <c r="DK2" s="23"/>
+      <c r="DL2" s="23"/>
+      <c r="DM2" s="23"/>
+      <c r="DN2" s="23"/>
+      <c r="DO2" s="23"/>
+      <c r="DP2" s="23"/>
+      <c r="DQ2" s="23"/>
+      <c r="DR2" s="23"/>
+      <c r="DS2" s="23"/>
+      <c r="DT2" s="23"/>
+      <c r="DU2" s="23"/>
+      <c r="DV2" s="23"/>
+      <c r="DW2" s="23"/>
+      <c r="DX2" s="23"/>
+      <c r="DY2" s="23"/>
+      <c r="DZ2" s="23"/>
+      <c r="EA2" s="23"/>
+      <c r="EB2" s="23"/>
+      <c r="EC2" s="23"/>
+      <c r="ED2" s="23"/>
+      <c r="EE2" s="23"/>
+      <c r="EF2" s="23"/>
+      <c r="EG2" s="23"/>
+      <c r="EH2" s="23"/>
+      <c r="EI2" s="23"/>
+      <c r="EJ2" s="23"/>
+      <c r="EK2" s="23"/>
+      <c r="EL2" s="23"/>
+      <c r="EM2" s="23"/>
+      <c r="EN2" s="23"/>
+      <c r="EO2" s="23"/>
+      <c r="EP2" s="23"/>
+      <c r="EQ2" s="23"/>
+      <c r="ER2" s="23"/>
+      <c r="ES2" s="23"/>
+      <c r="ET2" s="23"/>
+      <c r="EU2" s="23"/>
+      <c r="EV2" s="23"/>
+      <c r="EW2" s="23"/>
+      <c r="EX2" s="23"/>
+      <c r="EY2" s="23"/>
+      <c r="EZ2" s="23"/>
+      <c r="FA2" s="23"/>
+      <c r="FB2" s="23"/>
+      <c r="FC2" s="23"/>
+      <c r="FD2" s="23"/>
+      <c r="FE2" s="23"/>
+      <c r="FF2" s="23"/>
+      <c r="FG2" s="23"/>
+      <c r="FH2" s="23"/>
+      <c r="FI2" s="23"/>
+      <c r="FJ2" s="23"/>
+      <c r="FK2" s="23"/>
+      <c r="FL2" s="23"/>
+      <c r="FM2" s="23"/>
+      <c r="FN2" s="23"/>
+      <c r="FO2" s="23"/>
+      <c r="FP2" s="23"/>
+      <c r="FQ2" s="23"/>
+      <c r="FR2" s="23"/>
+      <c r="FS2" s="23"/>
+      <c r="FT2" s="23"/>
+      <c r="FU2" s="23"/>
+      <c r="FV2" s="23"/>
+      <c r="FW2" s="23"/>
+      <c r="FX2" s="23"/>
+      <c r="FY2" s="23"/>
+      <c r="FZ2" s="23"/>
+      <c r="GA2" s="23"/>
+      <c r="GB2" s="23"/>
+      <c r="GC2" s="23"/>
+      <c r="GD2" s="23"/>
+      <c r="GE2" s="23"/>
+      <c r="GF2" s="23"/>
+      <c r="GG2" s="23"/>
+      <c r="GH2" s="23"/>
+      <c r="GI2" s="23"/>
+      <c r="GJ2" s="23"/>
+      <c r="GK2" s="23"/>
+      <c r="GL2" s="23"/>
+      <c r="GM2" s="23"/>
+      <c r="GN2" s="23"/>
+      <c r="GO2" s="23"/>
+      <c r="GP2" s="23"/>
+      <c r="GQ2" s="23"/>
+      <c r="GR2" s="23"/>
+      <c r="GS2" s="23"/>
+      <c r="GT2" s="23"/>
+      <c r="GU2" s="23"/>
+      <c r="GV2" s="23"/>
+      <c r="GW2" s="23"/>
+      <c r="GX2" s="23"/>
+      <c r="GY2" s="23"/>
+      <c r="GZ2" s="23"/>
+      <c r="HA2" s="23"/>
+      <c r="HB2" s="23"/>
+      <c r="HC2" s="23"/>
+      <c r="HD2" s="23"/>
+      <c r="HE2" s="23"/>
+      <c r="HF2" s="23"/>
+      <c r="HG2" s="23"/>
+      <c r="HH2" s="23"/>
+      <c r="HI2" s="23"/>
+      <c r="HJ2" s="23"/>
+      <c r="HK2" s="23"/>
+      <c r="HL2" s="23"/>
+      <c r="HM2" s="23"/>
+      <c r="HN2" s="23"/>
+      <c r="HO2" s="23"/>
+      <c r="HP2" s="23"/>
+      <c r="HQ2" s="23"/>
+      <c r="HR2" s="23"/>
+      <c r="HS2" s="23"/>
+      <c r="HT2" s="23"/>
+      <c r="HU2" s="23"/>
+      <c r="HV2" s="23"/>
+      <c r="HW2" s="23"/>
+      <c r="HX2" s="23"/>
+      <c r="HY2" s="23"/>
+      <c r="HZ2" s="23"/>
+      <c r="IA2" s="23"/>
+      <c r="IB2" s="23"/>
+      <c r="IC2" s="23"/>
+      <c r="ID2" s="23"/>
+      <c r="IE2" s="23"/>
+      <c r="IF2" s="23"/>
+      <c r="IG2" s="23"/>
+      <c r="IH2" s="23"/>
+      <c r="II2" s="23"/>
+      <c r="IJ2" s="23"/>
+      <c r="IK2" s="23"/>
+      <c r="IL2" s="23"/>
+      <c r="IM2" s="23"/>
+      <c r="IN2" s="23"/>
+      <c r="IO2" s="23"/>
+      <c r="IP2" s="23"/>
+      <c r="IQ2" s="23"/>
+      <c r="IR2" s="23"/>
+      <c r="IS2" s="23"/>
+      <c r="IT2" s="23"/>
+      <c r="IU2" s="23"/>
       <c r="IV2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="IW2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="IX2" s="26"/>
-      <c r="IY2" s="26"/>
-      <c r="IZ2" s="26"/>
-      <c r="JA2" s="26"/>
-      <c r="JB2" s="26"/>
-      <c r="JC2" s="26"/>
-      <c r="JD2" s="26"/>
-      <c r="JE2" s="26"/>
-      <c r="JF2" s="26"/>
-      <c r="JG2" s="26"/>
-      <c r="JH2" s="26"/>
-      <c r="JI2" s="26"/>
-      <c r="JJ2" s="26"/>
-      <c r="JK2" s="26"/>
-      <c r="JL2" s="26"/>
-      <c r="JM2" s="26"/>
-      <c r="JN2" s="26"/>
-      <c r="JO2" s="26"/>
-      <c r="JP2" s="26"/>
-      <c r="JQ2" s="26"/>
-      <c r="JR2" s="26"/>
-      <c r="JS2" s="26"/>
-      <c r="JT2" s="26"/>
-      <c r="JU2" s="26"/>
-      <c r="JV2" s="26"/>
-      <c r="JW2" s="26"/>
-      <c r="JX2" s="26"/>
-      <c r="JY2" s="26"/>
-      <c r="JZ2" s="32" t="s">
+      <c r="IX2" s="25"/>
+      <c r="IY2" s="25"/>
+      <c r="IZ2" s="25"/>
+      <c r="JA2" s="25"/>
+      <c r="JB2" s="25"/>
+      <c r="JC2" s="25"/>
+      <c r="JD2" s="25"/>
+      <c r="JE2" s="25"/>
+      <c r="JF2" s="25"/>
+      <c r="JG2" s="25"/>
+      <c r="JH2" s="25"/>
+      <c r="JI2" s="25"/>
+      <c r="JJ2" s="25"/>
+      <c r="JK2" s="25"/>
+      <c r="JL2" s="25"/>
+      <c r="JM2" s="25"/>
+      <c r="JN2" s="25"/>
+      <c r="JO2" s="25"/>
+      <c r="JP2" s="25"/>
+      <c r="JQ2" s="25"/>
+      <c r="JR2" s="25"/>
+      <c r="JS2" s="25"/>
+      <c r="JT2" s="25"/>
+      <c r="JU2" s="25"/>
+      <c r="JV2" s="25"/>
+      <c r="JW2" s="25"/>
+      <c r="JX2" s="25"/>
+      <c r="JY2" s="25"/>
+      <c r="JZ2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="KA2" s="32"/>
-      <c r="KB2" s="32"/>
-      <c r="KC2" s="32"/>
-      <c r="KD2" s="32"/>
-      <c r="KE2" s="32"/>
-      <c r="KF2" s="32"/>
-      <c r="KG2" s="32"/>
-      <c r="KH2" s="32"/>
-      <c r="KI2" s="32"/>
-      <c r="KJ2" s="32"/>
-      <c r="KK2" s="32"/>
-      <c r="KL2" s="32"/>
-      <c r="KM2" s="32"/>
-      <c r="KN2" s="32"/>
-      <c r="KO2" s="32"/>
-      <c r="KP2" s="32"/>
-      <c r="KQ2" s="32"/>
-      <c r="KR2" s="26" t="s">
+      <c r="KA2" s="23"/>
+      <c r="KB2" s="23"/>
+      <c r="KC2" s="23"/>
+      <c r="KD2" s="23"/>
+      <c r="KE2" s="23"/>
+      <c r="KF2" s="23"/>
+      <c r="KG2" s="23"/>
+      <c r="KH2" s="23"/>
+      <c r="KI2" s="23"/>
+      <c r="KJ2" s="23"/>
+      <c r="KK2" s="23"/>
+      <c r="KL2" s="23"/>
+      <c r="KM2" s="23"/>
+      <c r="KN2" s="23"/>
+      <c r="KO2" s="23"/>
+      <c r="KP2" s="23"/>
+      <c r="KQ2" s="23"/>
+      <c r="KR2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="KS2" s="26"/>
-      <c r="KT2" s="26"/>
-      <c r="KU2" s="26"/>
-      <c r="KV2" s="26"/>
-      <c r="KW2" s="26"/>
-      <c r="KX2" s="26"/>
-      <c r="KY2" s="26"/>
-      <c r="KZ2" s="26"/>
-      <c r="LA2" s="26"/>
-      <c r="LB2" s="26"/>
-      <c r="LC2" s="26"/>
-      <c r="LD2" s="26"/>
-      <c r="LE2" s="26"/>
-      <c r="LF2" s="26"/>
-      <c r="LG2" s="26"/>
-      <c r="LH2" s="26"/>
-      <c r="LI2" s="26"/>
-      <c r="LJ2" s="26"/>
-      <c r="LK2" s="26"/>
-      <c r="LL2" s="26"/>
-      <c r="LM2" s="26"/>
-      <c r="LN2" s="26"/>
-      <c r="LO2" s="26"/>
-      <c r="LP2" s="26"/>
-      <c r="LQ2" s="26"/>
-      <c r="LR2" s="26"/>
-      <c r="LS2" s="27"/>
+      <c r="KS2" s="25"/>
+      <c r="KT2" s="25"/>
+      <c r="KU2" s="25"/>
+      <c r="KV2" s="25"/>
+      <c r="KW2" s="25"/>
+      <c r="KX2" s="25"/>
+      <c r="KY2" s="25"/>
+      <c r="KZ2" s="25"/>
+      <c r="LA2" s="25"/>
+      <c r="LB2" s="25"/>
+      <c r="LC2" s="25"/>
+      <c r="LD2" s="25"/>
+      <c r="LE2" s="25"/>
+      <c r="LF2" s="25"/>
+      <c r="LG2" s="25"/>
+      <c r="LH2" s="25"/>
+      <c r="LI2" s="25"/>
+      <c r="LJ2" s="25"/>
+      <c r="LK2" s="25"/>
+      <c r="LL2" s="25"/>
+      <c r="LM2" s="25"/>
+      <c r="LN2" s="25"/>
+      <c r="LO2" s="25"/>
+      <c r="LP2" s="25"/>
+      <c r="LQ2" s="25"/>
+      <c r="LR2" s="25"/>
+      <c r="LS2" s="28"/>
     </row>
     <row r="3" spans="1:331" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28" t="s">
+      <c r="T3" s="29"/>
+      <c r="U3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="28"/>
-      <c r="W3" s="29" t="s">
+      <c r="V3" s="29"/>
+      <c r="W3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="29"/>
-      <c r="AV3" s="29"/>
-      <c r="AW3" s="29"/>
-      <c r="AX3" s="29"/>
-      <c r="AY3" s="29"/>
-      <c r="AZ3" s="29"/>
-      <c r="BA3" s="29"/>
-      <c r="BB3" s="29"/>
-      <c r="BC3" s="23" t="s">
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30"/>
+      <c r="BC3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="BD3" s="23"/>
-      <c r="BE3" s="23"/>
-      <c r="BF3" s="23"/>
-      <c r="BG3" s="23"/>
-      <c r="BH3" s="23"/>
-      <c r="BI3" s="23"/>
-      <c r="BJ3" s="23"/>
-      <c r="BK3" s="23"/>
-      <c r="BL3" s="23"/>
-      <c r="BM3" s="23"/>
-      <c r="BN3" s="23"/>
-      <c r="BO3" s="23"/>
-      <c r="BP3" s="23"/>
-      <c r="BQ3" s="23"/>
-      <c r="BR3" s="23"/>
-      <c r="BS3" s="23"/>
-      <c r="BT3" s="23"/>
-      <c r="BU3" s="23"/>
-      <c r="BV3" s="23"/>
-      <c r="BW3" s="23"/>
-      <c r="BX3" s="23"/>
-      <c r="BY3" s="23"/>
-      <c r="BZ3" s="23"/>
-      <c r="CA3" s="23"/>
-      <c r="CB3" s="23"/>
-      <c r="CC3" s="23"/>
-      <c r="CD3" s="23"/>
-      <c r="CE3" s="23"/>
-      <c r="CF3" s="23"/>
-      <c r="CG3" s="23"/>
-      <c r="CH3" s="23"/>
-      <c r="CI3" s="28" t="s">
+      <c r="BD3" s="24"/>
+      <c r="BE3" s="24"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="24"/>
+      <c r="BH3" s="24"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="24"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="24"/>
+      <c r="BM3" s="24"/>
+      <c r="BN3" s="24"/>
+      <c r="BO3" s="24"/>
+      <c r="BP3" s="24"/>
+      <c r="BQ3" s="24"/>
+      <c r="BR3" s="24"/>
+      <c r="BS3" s="24"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="24"/>
+      <c r="BW3" s="24"/>
+      <c r="BX3" s="24"/>
+      <c r="BY3" s="24"/>
+      <c r="BZ3" s="24"/>
+      <c r="CA3" s="24"/>
+      <c r="CB3" s="24"/>
+      <c r="CC3" s="24"/>
+      <c r="CD3" s="24"/>
+      <c r="CE3" s="24"/>
+      <c r="CF3" s="24"/>
+      <c r="CG3" s="24"/>
+      <c r="CH3" s="24"/>
+      <c r="CI3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CJ3" s="28"/>
-      <c r="CK3" s="28"/>
-      <c r="CL3" s="28"/>
-      <c r="CM3" s="28"/>
-      <c r="CN3" s="28"/>
-      <c r="CO3" s="28"/>
-      <c r="CP3" s="28"/>
-      <c r="CQ3" s="28"/>
-      <c r="CR3" s="28"/>
-      <c r="CS3" s="28"/>
-      <c r="CT3" s="28"/>
-      <c r="CU3" s="28"/>
-      <c r="CV3" s="28"/>
-      <c r="CW3" s="28"/>
-      <c r="CX3" s="28"/>
-      <c r="CY3" s="28"/>
-      <c r="CZ3" s="28"/>
-      <c r="DA3" s="28"/>
-      <c r="DB3" s="28"/>
-      <c r="DC3" s="28"/>
-      <c r="DD3" s="28"/>
-      <c r="DE3" s="28"/>
-      <c r="DF3" s="28"/>
-      <c r="DG3" s="28"/>
-      <c r="DH3" s="28"/>
-      <c r="DI3" s="28"/>
-      <c r="DJ3" s="28"/>
-      <c r="DK3" s="28"/>
-      <c r="DL3" s="28"/>
-      <c r="DM3" s="23" t="s">
+      <c r="CJ3" s="29"/>
+      <c r="CK3" s="29"/>
+      <c r="CL3" s="29"/>
+      <c r="CM3" s="29"/>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="29"/>
+      <c r="CP3" s="29"/>
+      <c r="CQ3" s="29"/>
+      <c r="CR3" s="29"/>
+      <c r="CS3" s="29"/>
+      <c r="CT3" s="29"/>
+      <c r="CU3" s="29"/>
+      <c r="CV3" s="29"/>
+      <c r="CW3" s="29"/>
+      <c r="CX3" s="29"/>
+      <c r="CY3" s="29"/>
+      <c r="CZ3" s="29"/>
+      <c r="DA3" s="29"/>
+      <c r="DB3" s="29"/>
+      <c r="DC3" s="29"/>
+      <c r="DD3" s="29"/>
+      <c r="DE3" s="29"/>
+      <c r="DF3" s="29"/>
+      <c r="DG3" s="29"/>
+      <c r="DH3" s="29"/>
+      <c r="DI3" s="29"/>
+      <c r="DJ3" s="29"/>
+      <c r="DK3" s="29"/>
+      <c r="DL3" s="29"/>
+      <c r="DM3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="DN3" s="23"/>
-      <c r="DO3" s="23"/>
-      <c r="DP3" s="23"/>
-      <c r="DQ3" s="23"/>
-      <c r="DR3" s="23"/>
-      <c r="DS3" s="23"/>
-      <c r="DT3" s="23"/>
-      <c r="DU3" s="23"/>
-      <c r="DV3" s="23"/>
-      <c r="DW3" s="23"/>
-      <c r="DX3" s="23"/>
-      <c r="DY3" s="23"/>
-      <c r="DZ3" s="23"/>
-      <c r="EA3" s="23"/>
-      <c r="EB3" s="23"/>
-      <c r="EC3" s="23"/>
-      <c r="ED3" s="23"/>
-      <c r="EE3" s="23"/>
-      <c r="EF3" s="23"/>
-      <c r="EG3" s="23"/>
-      <c r="EH3" s="23"/>
-      <c r="EI3" s="23"/>
-      <c r="EJ3" s="23"/>
-      <c r="EK3" s="23"/>
-      <c r="EL3" s="23"/>
-      <c r="EM3" s="23"/>
-      <c r="EN3" s="23"/>
-      <c r="EO3" s="23"/>
-      <c r="EP3" s="23"/>
-      <c r="EQ3" s="23"/>
-      <c r="ER3" s="23"/>
-      <c r="ES3" s="23"/>
-      <c r="ET3" s="23"/>
-      <c r="EU3" s="23"/>
-      <c r="EV3" s="23"/>
-      <c r="EW3" s="23"/>
-      <c r="EX3" s="23"/>
-      <c r="EY3" s="23"/>
-      <c r="EZ3" s="23"/>
-      <c r="FA3" s="23"/>
-      <c r="FB3" s="23"/>
-      <c r="FC3" s="23"/>
-      <c r="FD3" s="23"/>
-      <c r="FE3" s="23"/>
-      <c r="FF3" s="23" t="s">
+      <c r="DN3" s="24"/>
+      <c r="DO3" s="24"/>
+      <c r="DP3" s="24"/>
+      <c r="DQ3" s="24"/>
+      <c r="DR3" s="24"/>
+      <c r="DS3" s="24"/>
+      <c r="DT3" s="24"/>
+      <c r="DU3" s="24"/>
+      <c r="DV3" s="24"/>
+      <c r="DW3" s="24"/>
+      <c r="DX3" s="24"/>
+      <c r="DY3" s="24"/>
+      <c r="DZ3" s="24"/>
+      <c r="EA3" s="24"/>
+      <c r="EB3" s="24"/>
+      <c r="EC3" s="24"/>
+      <c r="ED3" s="24"/>
+      <c r="EE3" s="24"/>
+      <c r="EF3" s="24"/>
+      <c r="EG3" s="24"/>
+      <c r="EH3" s="24"/>
+      <c r="EI3" s="24"/>
+      <c r="EJ3" s="24"/>
+      <c r="EK3" s="24"/>
+      <c r="EL3" s="24"/>
+      <c r="EM3" s="24"/>
+      <c r="EN3" s="24"/>
+      <c r="EO3" s="24"/>
+      <c r="EP3" s="24"/>
+      <c r="EQ3" s="24"/>
+      <c r="ER3" s="24"/>
+      <c r="ES3" s="24"/>
+      <c r="ET3" s="24"/>
+      <c r="EU3" s="24"/>
+      <c r="EV3" s="24"/>
+      <c r="EW3" s="24"/>
+      <c r="EX3" s="24"/>
+      <c r="EY3" s="24"/>
+      <c r="EZ3" s="24"/>
+      <c r="FA3" s="24"/>
+      <c r="FB3" s="24"/>
+      <c r="FC3" s="24"/>
+      <c r="FD3" s="24"/>
+      <c r="FE3" s="24"/>
+      <c r="FF3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="FG3" s="23"/>
-      <c r="FH3" s="23"/>
-      <c r="FI3" s="23"/>
-      <c r="FJ3" s="23"/>
-      <c r="FK3" s="23"/>
-      <c r="FL3" s="23"/>
-      <c r="FM3" s="23"/>
-      <c r="FN3" s="23"/>
-      <c r="FO3" s="23"/>
-      <c r="FP3" s="23"/>
-      <c r="FQ3" s="23"/>
-      <c r="FR3" s="23"/>
-      <c r="FS3" s="23"/>
-      <c r="FT3" s="23"/>
-      <c r="FU3" s="23"/>
-      <c r="FV3" s="23"/>
-      <c r="FW3" s="23"/>
-      <c r="FX3" s="23"/>
-      <c r="FY3" s="23"/>
-      <c r="FZ3" s="23"/>
-      <c r="GA3" s="23"/>
-      <c r="GB3" s="23"/>
-      <c r="GC3" s="23"/>
-      <c r="GD3" s="23"/>
-      <c r="GE3" s="23"/>
-      <c r="GF3" s="23"/>
-      <c r="GG3" s="23"/>
-      <c r="GH3" s="23"/>
-      <c r="GI3" s="23"/>
-      <c r="GJ3" s="23" t="s">
+      <c r="FG3" s="24"/>
+      <c r="FH3" s="24"/>
+      <c r="FI3" s="24"/>
+      <c r="FJ3" s="24"/>
+      <c r="FK3" s="24"/>
+      <c r="FL3" s="24"/>
+      <c r="FM3" s="24"/>
+      <c r="FN3" s="24"/>
+      <c r="FO3" s="24"/>
+      <c r="FP3" s="24"/>
+      <c r="FQ3" s="24"/>
+      <c r="FR3" s="24"/>
+      <c r="FS3" s="24"/>
+      <c r="FT3" s="24"/>
+      <c r="FU3" s="24"/>
+      <c r="FV3" s="24"/>
+      <c r="FW3" s="24"/>
+      <c r="FX3" s="24"/>
+      <c r="FY3" s="24"/>
+      <c r="FZ3" s="24"/>
+      <c r="GA3" s="24"/>
+      <c r="GB3" s="24"/>
+      <c r="GC3" s="24"/>
+      <c r="GD3" s="24"/>
+      <c r="GE3" s="24"/>
+      <c r="GF3" s="24"/>
+      <c r="GG3" s="24"/>
+      <c r="GH3" s="24"/>
+      <c r="GI3" s="24"/>
+      <c r="GJ3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="GK3" s="23"/>
-      <c r="GL3" s="23"/>
-      <c r="GM3" s="23"/>
-      <c r="GN3" s="23"/>
-      <c r="GO3" s="23"/>
-      <c r="GP3" s="23"/>
-      <c r="GQ3" s="23"/>
-      <c r="GR3" s="23"/>
-      <c r="GS3" s="23"/>
-      <c r="GT3" s="23"/>
-      <c r="GU3" s="23"/>
-      <c r="GV3" s="23"/>
-      <c r="GW3" s="23"/>
-      <c r="GX3" s="23"/>
-      <c r="GY3" s="23"/>
-      <c r="GZ3" s="23" t="s">
+      <c r="GK3" s="24"/>
+      <c r="GL3" s="24"/>
+      <c r="GM3" s="24"/>
+      <c r="GN3" s="24"/>
+      <c r="GO3" s="24"/>
+      <c r="GP3" s="24"/>
+      <c r="GQ3" s="24"/>
+      <c r="GR3" s="24"/>
+      <c r="GS3" s="24"/>
+      <c r="GT3" s="24"/>
+      <c r="GU3" s="24"/>
+      <c r="GV3" s="24"/>
+      <c r="GW3" s="24"/>
+      <c r="GX3" s="24"/>
+      <c r="GY3" s="24"/>
+      <c r="GZ3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="HA3" s="23"/>
-      <c r="HB3" s="23"/>
-      <c r="HC3" s="23"/>
-      <c r="HD3" s="23"/>
-      <c r="HE3" s="23"/>
-      <c r="HF3" s="23"/>
-      <c r="HG3" s="23"/>
-      <c r="HH3" s="23"/>
-      <c r="HI3" s="23"/>
-      <c r="HJ3" s="23"/>
-      <c r="HK3" s="23"/>
-      <c r="HL3" s="23"/>
-      <c r="HM3" s="23"/>
-      <c r="HN3" s="23" t="s">
+      <c r="HA3" s="24"/>
+      <c r="HB3" s="24"/>
+      <c r="HC3" s="24"/>
+      <c r="HD3" s="24"/>
+      <c r="HE3" s="24"/>
+      <c r="HF3" s="24"/>
+      <c r="HG3" s="24"/>
+      <c r="HH3" s="24"/>
+      <c r="HI3" s="24"/>
+      <c r="HJ3" s="24"/>
+      <c r="HK3" s="24"/>
+      <c r="HL3" s="24"/>
+      <c r="HM3" s="24"/>
+      <c r="HN3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="HO3" s="23"/>
-      <c r="HP3" s="23"/>
-      <c r="HQ3" s="23"/>
-      <c r="HR3" s="23"/>
-      <c r="HS3" s="23"/>
-      <c r="HT3" s="23"/>
-      <c r="HU3" s="23"/>
-      <c r="HV3" s="23"/>
-      <c r="HW3" s="23"/>
-      <c r="HX3" s="23"/>
-      <c r="HY3" s="23"/>
-      <c r="HZ3" s="23"/>
-      <c r="IA3" s="23"/>
-      <c r="IB3" s="23" t="s">
+      <c r="HO3" s="24"/>
+      <c r="HP3" s="24"/>
+      <c r="HQ3" s="24"/>
+      <c r="HR3" s="24"/>
+      <c r="HS3" s="24"/>
+      <c r="HT3" s="24"/>
+      <c r="HU3" s="24"/>
+      <c r="HV3" s="24"/>
+      <c r="HW3" s="24"/>
+      <c r="HX3" s="24"/>
+      <c r="HY3" s="24"/>
+      <c r="HZ3" s="24"/>
+      <c r="IA3" s="24"/>
+      <c r="IB3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="IC3" s="23"/>
-      <c r="ID3" s="23"/>
-      <c r="IE3" s="23"/>
-      <c r="IF3" s="23"/>
-      <c r="IG3" s="23"/>
-      <c r="IH3" s="23"/>
-      <c r="II3" s="23"/>
-      <c r="IJ3" s="23"/>
-      <c r="IK3" s="23"/>
-      <c r="IL3" s="23"/>
-      <c r="IM3" s="23"/>
-      <c r="IN3" s="23"/>
-      <c r="IO3" s="23"/>
-      <c r="IP3" s="23"/>
-      <c r="IQ3" s="23"/>
-      <c r="IR3" s="23"/>
-      <c r="IS3" s="23"/>
-      <c r="IT3" s="23"/>
-      <c r="IU3" s="23"/>
+      <c r="IC3" s="24"/>
+      <c r="ID3" s="24"/>
+      <c r="IE3" s="24"/>
+      <c r="IF3" s="24"/>
+      <c r="IG3" s="24"/>
+      <c r="IH3" s="24"/>
+      <c r="II3" s="24"/>
+      <c r="IJ3" s="24"/>
+      <c r="IK3" s="24"/>
+      <c r="IL3" s="24"/>
+      <c r="IM3" s="24"/>
+      <c r="IN3" s="24"/>
+      <c r="IO3" s="24"/>
+      <c r="IP3" s="24"/>
+      <c r="IQ3" s="24"/>
+      <c r="IR3" s="24"/>
+      <c r="IS3" s="24"/>
+      <c r="IT3" s="24"/>
+      <c r="IU3" s="24"/>
       <c r="IV3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="IW3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="IX3" s="23" t="s">
+      <c r="IX3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="IY3" s="23"/>
-      <c r="IZ3" s="23"/>
-      <c r="JA3" s="23"/>
-      <c r="JB3" s="23"/>
-      <c r="JC3" s="23"/>
-      <c r="JD3" s="23"/>
-      <c r="JE3" s="23"/>
-      <c r="JF3" s="23"/>
-      <c r="JG3" s="23"/>
-      <c r="JH3" s="23"/>
-      <c r="JI3" s="23"/>
-      <c r="JJ3" s="23"/>
-      <c r="JK3" s="23"/>
-      <c r="JL3" s="23"/>
-      <c r="JM3" s="23"/>
-      <c r="JN3" s="23"/>
-      <c r="JO3" s="23"/>
-      <c r="JP3" s="23"/>
-      <c r="JQ3" s="23"/>
-      <c r="JR3" s="23"/>
-      <c r="JS3" s="23"/>
-      <c r="JT3" s="23"/>
-      <c r="JU3" s="23"/>
-      <c r="JV3" s="23"/>
-      <c r="JW3" s="23"/>
-      <c r="JX3" s="23"/>
-      <c r="JY3" s="23"/>
-      <c r="JZ3" s="23" t="s">
+      <c r="IY3" s="24"/>
+      <c r="IZ3" s="24"/>
+      <c r="JA3" s="24"/>
+      <c r="JB3" s="24"/>
+      <c r="JC3" s="24"/>
+      <c r="JD3" s="24"/>
+      <c r="JE3" s="24"/>
+      <c r="JF3" s="24"/>
+      <c r="JG3" s="24"/>
+      <c r="JH3" s="24"/>
+      <c r="JI3" s="24"/>
+      <c r="JJ3" s="24"/>
+      <c r="JK3" s="24"/>
+      <c r="JL3" s="24"/>
+      <c r="JM3" s="24"/>
+      <c r="JN3" s="24"/>
+      <c r="JO3" s="24"/>
+      <c r="JP3" s="24"/>
+      <c r="JQ3" s="24"/>
+      <c r="JR3" s="24"/>
+      <c r="JS3" s="24"/>
+      <c r="JT3" s="24"/>
+      <c r="JU3" s="24"/>
+      <c r="JV3" s="24"/>
+      <c r="JW3" s="24"/>
+      <c r="JX3" s="24"/>
+      <c r="JY3" s="24"/>
+      <c r="JZ3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="KA3" s="23"/>
-      <c r="KB3" s="23"/>
-      <c r="KC3" s="23"/>
-      <c r="KD3" s="23"/>
-      <c r="KE3" s="23"/>
-      <c r="KF3" s="23"/>
-      <c r="KG3" s="23"/>
-      <c r="KH3" s="23"/>
-      <c r="KI3" s="23"/>
-      <c r="KJ3" s="23"/>
-      <c r="KK3" s="23"/>
-      <c r="KL3" s="23"/>
-      <c r="KM3" s="23"/>
-      <c r="KN3" s="23"/>
-      <c r="KO3" s="23"/>
-      <c r="KP3" s="23"/>
-      <c r="KQ3" s="23"/>
-      <c r="KR3" s="23" t="s">
+      <c r="KA3" s="24"/>
+      <c r="KB3" s="24"/>
+      <c r="KC3" s="24"/>
+      <c r="KD3" s="24"/>
+      <c r="KE3" s="24"/>
+      <c r="KF3" s="24"/>
+      <c r="KG3" s="24"/>
+      <c r="KH3" s="24"/>
+      <c r="KI3" s="24"/>
+      <c r="KJ3" s="24"/>
+      <c r="KK3" s="24"/>
+      <c r="KL3" s="24"/>
+      <c r="KM3" s="24"/>
+      <c r="KN3" s="24"/>
+      <c r="KO3" s="24"/>
+      <c r="KP3" s="24"/>
+      <c r="KQ3" s="24"/>
+      <c r="KR3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="KS3" s="23"/>
-      <c r="KT3" s="23"/>
-      <c r="KU3" s="23"/>
-      <c r="KV3" s="23"/>
-      <c r="KW3" s="23"/>
-      <c r="KX3" s="23"/>
-      <c r="KY3" s="23"/>
-      <c r="KZ3" s="23"/>
-      <c r="LA3" s="23"/>
-      <c r="LB3" s="23"/>
-      <c r="LC3" s="23"/>
-      <c r="LD3" s="23"/>
-      <c r="LE3" s="23"/>
-      <c r="LF3" s="23"/>
-      <c r="LG3" s="23"/>
-      <c r="LH3" s="23"/>
-      <c r="LI3" s="23"/>
-      <c r="LJ3" s="23"/>
-      <c r="LK3" s="23"/>
-      <c r="LL3" s="23"/>
-      <c r="LM3" s="23"/>
-      <c r="LN3" s="23"/>
-      <c r="LO3" s="23"/>
-      <c r="LP3" s="23"/>
-      <c r="LQ3" s="23"/>
-      <c r="LR3" s="23"/>
+      <c r="KS3" s="24"/>
+      <c r="KT3" s="24"/>
+      <c r="KU3" s="24"/>
+      <c r="KV3" s="24"/>
+      <c r="KW3" s="24"/>
+      <c r="KX3" s="24"/>
+      <c r="KY3" s="24"/>
+      <c r="KZ3" s="24"/>
+      <c r="LA3" s="24"/>
+      <c r="LB3" s="24"/>
+      <c r="LC3" s="24"/>
+      <c r="LD3" s="24"/>
+      <c r="LE3" s="24"/>
+      <c r="LF3" s="24"/>
+      <c r="LG3" s="24"/>
+      <c r="LH3" s="24"/>
+      <c r="LI3" s="24"/>
+      <c r="LJ3" s="24"/>
+      <c r="LK3" s="24"/>
+      <c r="LL3" s="24"/>
+      <c r="LM3" s="24"/>
+      <c r="LN3" s="24"/>
+      <c r="LO3" s="24"/>
+      <c r="LP3" s="24"/>
+      <c r="LQ3" s="24"/>
+      <c r="LR3" s="24"/>
       <c r="LS3" s="19"/>
     </row>
     <row r="4" spans="1:331" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
@@ -4497,7 +4467,7 @@
       </c>
     </row>
     <row r="5" spans="1:331" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="6" t="s">
         <v>352</v>
       </c>
@@ -5489,7 +5459,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:331" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:331" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>353</v>
       </c>
@@ -47563,685 +47533,2654 @@
       <c r="A38" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13"/>
-      <c r="AL38" s="13"/>
-      <c r="AM38" s="13"/>
-      <c r="AN38" s="13"/>
-      <c r="AO38" s="13"/>
-      <c r="AP38" s="13"/>
-      <c r="AQ38" s="13"/>
-      <c r="AR38" s="13"/>
-      <c r="AS38" s="13"/>
-      <c r="AT38" s="13"/>
-      <c r="AU38" s="13"/>
-      <c r="AV38" s="13"/>
-      <c r="AW38" s="13"/>
-      <c r="AX38" s="13"/>
-      <c r="AY38" s="13"/>
-      <c r="AZ38" s="13"/>
-      <c r="BA38" s="13"/>
-      <c r="BB38" s="13"/>
-      <c r="BC38" s="13"/>
-      <c r="BD38" s="13"/>
-      <c r="BE38" s="13"/>
-      <c r="BF38" s="13"/>
-      <c r="BG38" s="13"/>
-      <c r="BH38" s="13"/>
-      <c r="BI38" s="13"/>
-      <c r="BJ38" s="13"/>
-      <c r="BK38" s="13"/>
-      <c r="BL38" s="13"/>
-      <c r="BM38" s="13"/>
-      <c r="BN38" s="13"/>
-      <c r="BO38" s="13"/>
-      <c r="BP38" s="13"/>
-      <c r="BQ38" s="13"/>
-      <c r="BR38" s="13"/>
-      <c r="BS38" s="13"/>
-      <c r="BT38" s="13"/>
-      <c r="BU38" s="13"/>
-      <c r="BV38" s="13"/>
-      <c r="BW38" s="13"/>
-      <c r="BX38" s="13"/>
-      <c r="BY38" s="13"/>
-      <c r="BZ38" s="13"/>
-      <c r="CA38" s="13"/>
-      <c r="CB38" s="13"/>
-      <c r="CC38" s="13"/>
-      <c r="CD38" s="13"/>
-      <c r="CE38" s="13"/>
-      <c r="CF38" s="13"/>
-      <c r="CG38" s="13"/>
-      <c r="CH38" s="13"/>
-      <c r="CI38" s="13"/>
-      <c r="CJ38" s="13"/>
-      <c r="CK38" s="13"/>
-      <c r="CL38" s="13"/>
-      <c r="CM38" s="13"/>
-      <c r="CN38" s="13"/>
-      <c r="CO38" s="13"/>
-      <c r="CP38" s="13"/>
-      <c r="CQ38" s="13"/>
-      <c r="CR38" s="13"/>
-      <c r="CS38" s="13"/>
-      <c r="CT38" s="13"/>
-      <c r="CU38" s="13"/>
-      <c r="CV38" s="13"/>
-      <c r="CW38" s="13"/>
-      <c r="CX38" s="13"/>
-      <c r="CY38" s="13"/>
-      <c r="CZ38" s="13"/>
-      <c r="DA38" s="13"/>
-      <c r="DB38" s="13"/>
-      <c r="DC38" s="13"/>
-      <c r="DD38" s="13"/>
-      <c r="DE38" s="13"/>
-      <c r="DF38" s="13"/>
-      <c r="DG38" s="13"/>
-      <c r="DH38" s="13"/>
-      <c r="DI38" s="13"/>
-      <c r="DJ38" s="13"/>
-      <c r="DK38" s="13"/>
-      <c r="DL38" s="13"/>
-      <c r="DM38" s="13"/>
-      <c r="DN38" s="13"/>
-      <c r="DO38" s="13"/>
-      <c r="DP38" s="13"/>
-      <c r="DQ38" s="13"/>
-      <c r="DR38" s="13"/>
-      <c r="DS38" s="13"/>
-      <c r="DT38" s="13"/>
-      <c r="DU38" s="13"/>
-      <c r="DV38" s="13"/>
-      <c r="DW38" s="13"/>
-      <c r="DX38" s="13"/>
-      <c r="DY38" s="13"/>
-      <c r="DZ38" s="13"/>
-      <c r="EA38" s="13"/>
-      <c r="EB38" s="13"/>
-      <c r="EC38" s="13"/>
-      <c r="ED38" s="13"/>
-      <c r="EE38" s="13"/>
-      <c r="EF38" s="13"/>
-      <c r="EG38" s="13"/>
-      <c r="EH38" s="13"/>
-      <c r="EI38" s="13"/>
-      <c r="EJ38" s="13"/>
-      <c r="EK38" s="13"/>
-      <c r="EL38" s="13"/>
-      <c r="EM38" s="13"/>
-      <c r="EN38" s="13"/>
-      <c r="EO38" s="13"/>
-      <c r="EP38" s="13"/>
-      <c r="EQ38" s="13"/>
-      <c r="ER38" s="13"/>
-      <c r="ES38" s="13"/>
-      <c r="ET38" s="13"/>
-      <c r="EU38" s="13"/>
-      <c r="EV38" s="13"/>
-      <c r="EW38" s="13"/>
-      <c r="EX38" s="13"/>
-      <c r="EY38" s="13"/>
-      <c r="EZ38" s="13"/>
-      <c r="FA38" s="13"/>
-      <c r="FB38" s="13"/>
-      <c r="FC38" s="13"/>
-      <c r="FD38" s="13"/>
-      <c r="FE38" s="13"/>
-      <c r="FF38" s="13"/>
-      <c r="FG38" s="13"/>
-      <c r="FH38" s="13"/>
-      <c r="FI38" s="13"/>
-      <c r="FJ38" s="13"/>
-      <c r="FK38" s="13"/>
-      <c r="FL38" s="13"/>
-      <c r="FM38" s="13"/>
-      <c r="FN38" s="13"/>
-      <c r="FO38" s="13"/>
-      <c r="FP38" s="13"/>
-      <c r="FQ38" s="13"/>
-      <c r="FR38" s="13"/>
-      <c r="FS38" s="13"/>
-      <c r="FT38" s="13"/>
-      <c r="FU38" s="13"/>
-      <c r="FV38" s="13"/>
-      <c r="FW38" s="13"/>
-      <c r="FX38" s="13"/>
-      <c r="FY38" s="13"/>
-      <c r="FZ38" s="13"/>
-      <c r="GA38" s="13"/>
-      <c r="GB38" s="13"/>
-      <c r="GC38" s="13"/>
-      <c r="GD38" s="13"/>
-      <c r="GE38" s="13"/>
-      <c r="GF38" s="13"/>
-      <c r="GG38" s="13"/>
-      <c r="GH38" s="13"/>
-      <c r="GI38" s="13"/>
-      <c r="GJ38" s="13"/>
-      <c r="GK38" s="13"/>
-      <c r="GL38" s="13"/>
-      <c r="GM38" s="13"/>
-      <c r="GN38" s="13"/>
-      <c r="GO38" s="13"/>
-      <c r="GP38" s="13"/>
-      <c r="GQ38" s="13"/>
-      <c r="GR38" s="13"/>
-      <c r="GS38" s="13"/>
-      <c r="GT38" s="13"/>
-      <c r="GU38" s="13"/>
-      <c r="GV38" s="13"/>
-      <c r="GW38" s="13"/>
-      <c r="GX38" s="13"/>
-      <c r="GY38" s="13"/>
-      <c r="GZ38" s="13"/>
-      <c r="HA38" s="13"/>
-      <c r="HB38" s="13"/>
-      <c r="HC38" s="13"/>
-      <c r="HD38" s="13"/>
-      <c r="HE38" s="13"/>
-      <c r="HF38" s="13"/>
-      <c r="HG38" s="13"/>
-      <c r="HH38" s="13"/>
-      <c r="HI38" s="13"/>
-      <c r="HJ38" s="13"/>
-      <c r="HK38" s="13"/>
-      <c r="HL38" s="13"/>
-      <c r="HM38" s="13"/>
-      <c r="HN38" s="13"/>
-      <c r="HO38" s="13"/>
-      <c r="HP38" s="13"/>
-      <c r="HQ38" s="13"/>
-      <c r="HR38" s="13"/>
-      <c r="HS38" s="13"/>
-      <c r="HT38" s="13"/>
-      <c r="HU38" s="13"/>
-      <c r="HV38" s="13"/>
-      <c r="HW38" s="13"/>
-      <c r="HX38" s="13"/>
-      <c r="HY38" s="13"/>
-      <c r="HZ38" s="13"/>
-      <c r="IA38" s="13"/>
-      <c r="IB38" s="13"/>
-      <c r="IC38" s="13"/>
-      <c r="ID38" s="13"/>
-      <c r="IE38" s="13"/>
-      <c r="IF38" s="13"/>
-      <c r="IG38" s="13"/>
-      <c r="IH38" s="13"/>
-      <c r="II38" s="13"/>
-      <c r="IJ38" s="13"/>
-      <c r="IK38" s="13"/>
-      <c r="IL38" s="13"/>
-      <c r="IM38" s="13"/>
-      <c r="IN38" s="13"/>
-      <c r="IO38" s="13"/>
-      <c r="IP38" s="13"/>
-      <c r="IQ38" s="13"/>
-      <c r="IR38" s="13"/>
-      <c r="IS38" s="13"/>
-      <c r="IT38" s="13"/>
-      <c r="IU38" s="13"/>
-      <c r="IV38" s="13"/>
-      <c r="IW38" s="13"/>
-      <c r="IX38" s="13"/>
-      <c r="IY38" s="13"/>
-      <c r="IZ38" s="13"/>
-      <c r="JA38" s="13"/>
-      <c r="JB38" s="13"/>
-      <c r="JC38" s="13"/>
-      <c r="JD38" s="13"/>
-      <c r="JE38" s="13"/>
-      <c r="JF38" s="13"/>
-      <c r="JG38" s="13"/>
-      <c r="JH38" s="13"/>
-      <c r="JI38" s="13"/>
-      <c r="JJ38" s="13"/>
-      <c r="JK38" s="13"/>
-      <c r="JL38" s="13"/>
-      <c r="JM38" s="13"/>
-      <c r="JN38" s="13"/>
-      <c r="JO38" s="13"/>
-      <c r="JP38" s="13"/>
-      <c r="JQ38" s="13"/>
-      <c r="JR38" s="13"/>
-      <c r="JS38" s="13"/>
-      <c r="JT38" s="13"/>
-      <c r="JU38" s="13"/>
-      <c r="JV38" s="13"/>
-      <c r="JW38" s="13"/>
-      <c r="JX38" s="13"/>
-      <c r="JY38" s="13"/>
-      <c r="JZ38" s="13"/>
-      <c r="KA38" s="13"/>
-      <c r="KB38" s="13"/>
-      <c r="KC38" s="13"/>
-      <c r="KD38" s="13"/>
-      <c r="KE38" s="13"/>
-      <c r="KF38" s="13"/>
-      <c r="KG38" s="13"/>
-      <c r="KH38" s="13"/>
-      <c r="KI38" s="13"/>
-      <c r="KJ38" s="13"/>
-      <c r="KK38" s="13"/>
-      <c r="KL38" s="13"/>
-      <c r="KM38" s="13"/>
-      <c r="KN38" s="13"/>
-      <c r="KO38" s="13"/>
-      <c r="KP38" s="13"/>
-      <c r="KQ38" s="13"/>
-      <c r="KR38" s="13"/>
-      <c r="KS38" s="13"/>
-      <c r="KT38" s="13"/>
-      <c r="KU38" s="13"/>
-      <c r="KV38" s="13"/>
-      <c r="KW38" s="13"/>
-      <c r="KX38" s="13"/>
-      <c r="KY38" s="13"/>
-      <c r="KZ38" s="13"/>
-      <c r="LA38" s="13"/>
-      <c r="LB38" s="13"/>
-      <c r="LC38" s="13"/>
-      <c r="LD38" s="13"/>
-      <c r="LE38" s="13"/>
-      <c r="LF38" s="13"/>
-      <c r="LG38" s="13"/>
-      <c r="LH38" s="13"/>
-      <c r="LI38" s="13"/>
-      <c r="LJ38" s="13"/>
-      <c r="LK38" s="13"/>
-      <c r="LL38" s="13"/>
-      <c r="LM38" s="13"/>
-      <c r="LN38" s="13"/>
-      <c r="LO38" s="13"/>
-      <c r="LP38" s="13"/>
-      <c r="LQ38" s="13"/>
-      <c r="LR38" s="13"/>
-      <c r="LS38" s="21"/>
+      <c r="B38" s="13" t="str">
+        <f>IFERROR(AVERAGE(B7:B37),"")</f>
+        <v/>
+      </c>
+      <c r="C38" s="13" t="str">
+        <f t="shared" ref="C38:BN38" si="0">IFERROR(AVERAGE(C7:C37),"")</f>
+        <v/>
+      </c>
+      <c r="D38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AL38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AY38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AZ38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BA38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BB38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BC38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BD38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BF38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BG38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BH38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BI38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BJ38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BK38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BL38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BM38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BN38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BO38" s="13" t="str">
+        <f t="shared" ref="BO38:DZ38" si="1">IFERROR(AVERAGE(BO7:BO37),"")</f>
+        <v/>
+      </c>
+      <c r="BP38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BQ38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BR38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BS38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BT38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BU38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BV38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BW38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BX38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BY38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BZ38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CA38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CB38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CC38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CD38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CF38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CG38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CH38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CI38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CJ38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CK38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CL38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CM38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CN38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CO38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CP38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CQ38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CR38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CS38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CT38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CU38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CV38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CW38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CX38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CY38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CZ38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DA38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DB38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DC38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DD38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DE38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DF38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DG38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DH38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DI38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DJ38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DK38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DL38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DM38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DN38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DO38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DP38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DQ38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DR38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DS38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DT38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DU38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DV38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DW38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DX38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DY38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DZ38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="EA38" s="13" t="str">
+        <f t="shared" ref="EA38:GL38" si="2">IFERROR(AVERAGE(EA7:EA37),"")</f>
+        <v/>
+      </c>
+      <c r="EB38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EC38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ED38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EE38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EF38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EG38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EH38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EI38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EJ38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EK38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EL38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EM38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EN38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EO38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EP38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EQ38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ER38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ES38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="ET38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EU38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EV38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EW38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EX38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EY38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="EZ38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FA38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FB38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FC38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FD38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FE38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FF38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FG38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FH38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FI38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FJ38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FK38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FL38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FM38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FN38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FO38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FP38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FQ38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FR38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FS38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FT38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FU38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FV38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FW38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FX38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FY38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="FZ38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="GA38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="GB38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="GC38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="GD38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="GE38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="GF38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="GG38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="GH38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="GI38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="GJ38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="GK38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="GL38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="GM38" s="13" t="str">
+        <f t="shared" ref="GM38:IX38" si="3">IFERROR(AVERAGE(GM7:GM37),"")</f>
+        <v/>
+      </c>
+      <c r="GN38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="GO38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="GP38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="GQ38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="GR38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="GS38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="GT38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="GU38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="GV38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="GW38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="GX38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="GY38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="GZ38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HA38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HB38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HC38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HD38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HE38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HF38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HG38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HH38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HI38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HJ38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HK38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HL38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HM38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HN38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HO38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HP38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HQ38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HR38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HS38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HT38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HU38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HV38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HW38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HX38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HY38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="HZ38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IA38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IB38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IC38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="ID38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IE38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IF38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IG38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IH38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="II38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IJ38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IK38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IL38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IM38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IN38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IO38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IP38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IQ38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IR38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IS38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IT38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IU38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IV38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IW38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IX38" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="IY38" s="13" t="str">
+        <f t="shared" ref="IY38:LJ38" si="4">IFERROR(AVERAGE(IY7:IY37),"")</f>
+        <v/>
+      </c>
+      <c r="IZ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JA38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JB38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JC38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JD38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JE38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JF38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JG38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JH38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JI38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JJ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JK38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JL38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JM38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JN38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JO38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JP38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JQ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JR38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JS38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JT38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JU38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JV38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JW38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JX38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JY38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="JZ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KA38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KB38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KC38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KD38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KE38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KF38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KG38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KH38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KI38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KJ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KK38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KL38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KM38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KN38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KO38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KP38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KQ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KR38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KS38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KT38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KU38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KV38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KW38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KX38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KY38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="KZ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="LA38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="LB38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="LC38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="LD38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="LE38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="LF38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="LG38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="LH38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="LI38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="LJ38" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="LK38" s="13" t="str">
+        <f t="shared" ref="LK38:LS38" si="5">IFERROR(AVERAGE(LK7:LK37),"")</f>
+        <v/>
+      </c>
+      <c r="LL38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="LM38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="LN38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="LO38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="LP38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="LQ38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="LR38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="LS38" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="39" spans="1:331" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="15"/>
-      <c r="AI39" s="15"/>
-      <c r="AJ39" s="15"/>
-      <c r="AK39" s="15"/>
-      <c r="AL39" s="15"/>
-      <c r="AM39" s="15"/>
-      <c r="AN39" s="15"/>
-      <c r="AO39" s="15"/>
-      <c r="AP39" s="15"/>
-      <c r="AQ39" s="15"/>
-      <c r="AR39" s="15"/>
-      <c r="AS39" s="15"/>
-      <c r="AT39" s="15"/>
-      <c r="AU39" s="15"/>
-      <c r="AV39" s="15"/>
-      <c r="AW39" s="15"/>
-      <c r="AX39" s="15"/>
-      <c r="AY39" s="15"/>
-      <c r="AZ39" s="15"/>
-      <c r="BA39" s="15"/>
-      <c r="BB39" s="15"/>
-      <c r="BC39" s="15"/>
-      <c r="BD39" s="15"/>
-      <c r="BE39" s="15"/>
-      <c r="BF39" s="15"/>
-      <c r="BG39" s="15"/>
-      <c r="BH39" s="15"/>
-      <c r="BI39" s="15"/>
-      <c r="BJ39" s="15"/>
-      <c r="BK39" s="15"/>
-      <c r="BL39" s="15"/>
-      <c r="BM39" s="15"/>
-      <c r="BN39" s="15"/>
-      <c r="BO39" s="15"/>
-      <c r="BP39" s="15"/>
-      <c r="BQ39" s="15"/>
-      <c r="BR39" s="15"/>
-      <c r="BS39" s="15"/>
-      <c r="BT39" s="15"/>
-      <c r="BU39" s="15"/>
-      <c r="BV39" s="15"/>
-      <c r="BW39" s="15"/>
-      <c r="BX39" s="15"/>
-      <c r="BY39" s="15"/>
-      <c r="BZ39" s="15"/>
-      <c r="CA39" s="15"/>
-      <c r="CB39" s="15"/>
-      <c r="CC39" s="15"/>
-      <c r="CD39" s="15"/>
-      <c r="CE39" s="15"/>
-      <c r="CF39" s="15"/>
-      <c r="CG39" s="15"/>
-      <c r="CH39" s="15"/>
-      <c r="CI39" s="15"/>
-      <c r="CJ39" s="15"/>
-      <c r="CK39" s="15"/>
-      <c r="CL39" s="15"/>
-      <c r="CM39" s="15"/>
-      <c r="CN39" s="15"/>
-      <c r="CO39" s="15"/>
-      <c r="CP39" s="15"/>
-      <c r="CQ39" s="15"/>
-      <c r="CR39" s="15"/>
-      <c r="CS39" s="15"/>
-      <c r="CT39" s="15"/>
-      <c r="CU39" s="15"/>
-      <c r="CV39" s="15"/>
-      <c r="CW39" s="15"/>
-      <c r="CX39" s="15"/>
-      <c r="CY39" s="15"/>
-      <c r="CZ39" s="15"/>
-      <c r="DA39" s="15"/>
-      <c r="DB39" s="15"/>
-      <c r="DC39" s="15"/>
-      <c r="DD39" s="15"/>
-      <c r="DE39" s="15"/>
-      <c r="DF39" s="15"/>
-      <c r="DG39" s="15"/>
-      <c r="DH39" s="15"/>
-      <c r="DI39" s="15"/>
-      <c r="DJ39" s="15"/>
-      <c r="DK39" s="15"/>
-      <c r="DL39" s="15"/>
-      <c r="DM39" s="15"/>
-      <c r="DN39" s="15"/>
-      <c r="DO39" s="15"/>
-      <c r="DP39" s="15"/>
-      <c r="DQ39" s="15"/>
-      <c r="DR39" s="15"/>
-      <c r="DS39" s="15"/>
-      <c r="DT39" s="15"/>
-      <c r="DU39" s="15"/>
-      <c r="DV39" s="15"/>
-      <c r="DW39" s="15"/>
-      <c r="DX39" s="15"/>
-      <c r="DY39" s="15"/>
-      <c r="DZ39" s="15"/>
-      <c r="EA39" s="15"/>
-      <c r="EB39" s="15"/>
-      <c r="EC39" s="15"/>
-      <c r="ED39" s="15"/>
-      <c r="EE39" s="15"/>
-      <c r="EF39" s="15"/>
-      <c r="EG39" s="15"/>
-      <c r="EH39" s="15"/>
-      <c r="EI39" s="15"/>
-      <c r="EJ39" s="15"/>
-      <c r="EK39" s="15"/>
-      <c r="EL39" s="15"/>
-      <c r="EM39" s="15"/>
-      <c r="EN39" s="15"/>
-      <c r="EO39" s="15"/>
-      <c r="EP39" s="15"/>
-      <c r="EQ39" s="15"/>
-      <c r="ER39" s="15"/>
-      <c r="ES39" s="15"/>
-      <c r="ET39" s="15"/>
-      <c r="EU39" s="15"/>
-      <c r="EV39" s="15"/>
-      <c r="EW39" s="15"/>
-      <c r="EX39" s="15"/>
-      <c r="EY39" s="15"/>
-      <c r="EZ39" s="15"/>
-      <c r="FA39" s="15"/>
-      <c r="FB39" s="15"/>
-      <c r="FC39" s="15"/>
-      <c r="FD39" s="15"/>
-      <c r="FE39" s="15"/>
-      <c r="FF39" s="15"/>
-      <c r="FG39" s="15"/>
-      <c r="FH39" s="15"/>
-      <c r="FI39" s="15"/>
-      <c r="FJ39" s="15"/>
-      <c r="FK39" s="15"/>
-      <c r="FL39" s="15"/>
-      <c r="FM39" s="15"/>
-      <c r="FN39" s="15"/>
-      <c r="FO39" s="15"/>
-      <c r="FP39" s="15"/>
-      <c r="FQ39" s="15"/>
-      <c r="FR39" s="15"/>
-      <c r="FS39" s="15"/>
-      <c r="FT39" s="15"/>
-      <c r="FU39" s="15"/>
-      <c r="FV39" s="15"/>
-      <c r="FW39" s="15"/>
-      <c r="FX39" s="15"/>
-      <c r="FY39" s="15"/>
-      <c r="FZ39" s="15"/>
-      <c r="GA39" s="15"/>
-      <c r="GB39" s="15"/>
-      <c r="GC39" s="15"/>
-      <c r="GD39" s="15"/>
-      <c r="GE39" s="15"/>
-      <c r="GF39" s="15"/>
-      <c r="GG39" s="15"/>
-      <c r="GH39" s="15"/>
-      <c r="GI39" s="15"/>
-      <c r="GJ39" s="15"/>
-      <c r="GK39" s="15"/>
-      <c r="GL39" s="15"/>
-      <c r="GM39" s="15"/>
-      <c r="GN39" s="15"/>
-      <c r="GO39" s="15"/>
-      <c r="GP39" s="15"/>
-      <c r="GQ39" s="15"/>
-      <c r="GR39" s="15"/>
-      <c r="GS39" s="15"/>
-      <c r="GT39" s="15"/>
-      <c r="GU39" s="15"/>
-      <c r="GV39" s="15"/>
-      <c r="GW39" s="15"/>
-      <c r="GX39" s="15"/>
-      <c r="GY39" s="15"/>
-      <c r="GZ39" s="15"/>
-      <c r="HA39" s="15"/>
-      <c r="HB39" s="15"/>
-      <c r="HC39" s="15"/>
-      <c r="HD39" s="15"/>
-      <c r="HE39" s="15"/>
-      <c r="HF39" s="15"/>
-      <c r="HG39" s="15"/>
-      <c r="HH39" s="15"/>
-      <c r="HI39" s="15"/>
-      <c r="HJ39" s="15"/>
-      <c r="HK39" s="15"/>
-      <c r="HL39" s="15"/>
-      <c r="HM39" s="15"/>
-      <c r="HN39" s="15"/>
-      <c r="HO39" s="15"/>
-      <c r="HP39" s="15"/>
-      <c r="HQ39" s="15"/>
-      <c r="HR39" s="15"/>
-      <c r="HS39" s="15"/>
-      <c r="HT39" s="15"/>
-      <c r="HU39" s="15"/>
-      <c r="HV39" s="15"/>
-      <c r="HW39" s="15"/>
-      <c r="HX39" s="15"/>
-      <c r="HY39" s="15"/>
-      <c r="HZ39" s="15"/>
-      <c r="IA39" s="15"/>
-      <c r="IB39" s="15"/>
-      <c r="IC39" s="15"/>
-      <c r="ID39" s="15"/>
-      <c r="IE39" s="15"/>
-      <c r="IF39" s="15"/>
-      <c r="IG39" s="15"/>
-      <c r="IH39" s="15"/>
-      <c r="II39" s="15"/>
-      <c r="IJ39" s="15"/>
-      <c r="IK39" s="15"/>
-      <c r="IL39" s="15"/>
-      <c r="IM39" s="15"/>
-      <c r="IN39" s="15"/>
-      <c r="IO39" s="15"/>
-      <c r="IP39" s="15"/>
-      <c r="IQ39" s="15"/>
-      <c r="IR39" s="15"/>
-      <c r="IS39" s="15"/>
-      <c r="IT39" s="15"/>
-      <c r="IU39" s="15"/>
-      <c r="IV39" s="15"/>
-      <c r="IW39" s="15"/>
-      <c r="IX39" s="15"/>
-      <c r="IY39" s="15"/>
-      <c r="IZ39" s="15"/>
-      <c r="JA39" s="15"/>
-      <c r="JB39" s="15"/>
-      <c r="JC39" s="15"/>
-      <c r="JD39" s="15"/>
-      <c r="JE39" s="15"/>
-      <c r="JF39" s="15"/>
-      <c r="JG39" s="15"/>
-      <c r="JH39" s="15"/>
-      <c r="JI39" s="15"/>
-      <c r="JJ39" s="15"/>
-      <c r="JK39" s="15"/>
-      <c r="JL39" s="15"/>
-      <c r="JM39" s="15"/>
-      <c r="JN39" s="15"/>
-      <c r="JO39" s="15"/>
-      <c r="JP39" s="15"/>
-      <c r="JQ39" s="15"/>
-      <c r="JR39" s="15"/>
-      <c r="JS39" s="15"/>
-      <c r="JT39" s="15"/>
-      <c r="JU39" s="15"/>
-      <c r="JV39" s="15"/>
-      <c r="JW39" s="15"/>
-      <c r="JX39" s="15"/>
-      <c r="JY39" s="15"/>
-      <c r="JZ39" s="15"/>
-      <c r="KA39" s="15"/>
-      <c r="KB39" s="15"/>
-      <c r="KC39" s="15"/>
-      <c r="KD39" s="15"/>
-      <c r="KE39" s="15"/>
-      <c r="KF39" s="15"/>
-      <c r="KG39" s="15"/>
-      <c r="KH39" s="15"/>
-      <c r="KI39" s="15"/>
-      <c r="KJ39" s="15"/>
-      <c r="KK39" s="15"/>
-      <c r="KL39" s="15"/>
-      <c r="KM39" s="15"/>
-      <c r="KN39" s="15"/>
-      <c r="KO39" s="15"/>
-      <c r="KP39" s="15"/>
-      <c r="KQ39" s="15"/>
-      <c r="KR39" s="15"/>
-      <c r="KS39" s="15"/>
-      <c r="KT39" s="15"/>
-      <c r="KU39" s="15"/>
-      <c r="KV39" s="15"/>
-      <c r="KW39" s="15"/>
-      <c r="KX39" s="15"/>
-      <c r="KY39" s="15"/>
-      <c r="KZ39" s="15"/>
-      <c r="LA39" s="15"/>
-      <c r="LB39" s="15"/>
-      <c r="LC39" s="15"/>
-      <c r="LD39" s="15"/>
-      <c r="LE39" s="15"/>
-      <c r="LF39" s="15"/>
-      <c r="LG39" s="15"/>
-      <c r="LH39" s="15"/>
-      <c r="LI39" s="15"/>
-      <c r="LJ39" s="15"/>
-      <c r="LK39" s="15"/>
-      <c r="LL39" s="15"/>
-      <c r="LM39" s="15"/>
-      <c r="LN39" s="15"/>
-      <c r="LO39" s="15"/>
-      <c r="LP39" s="15"/>
-      <c r="LQ39" s="15"/>
-      <c r="LR39" s="15"/>
-      <c r="LS39" s="22"/>
+      <c r="B39" s="15" t="str">
+        <f>IFERROR(_xlfn.STDEV.P(B7:B37),"")</f>
+        <v/>
+      </c>
+      <c r="C39" s="15" t="str">
+        <f t="shared" ref="C39:BN39" si="6">IFERROR(_xlfn.STDEV.P(C7:C37),"")</f>
+        <v/>
+      </c>
+      <c r="D39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="U39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AE39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AF39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AG39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AH39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AO39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AQ39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AR39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AS39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AT39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AU39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AZ39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BA39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BB39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BC39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BD39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BE39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BF39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BG39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BH39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BI39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BJ39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BK39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BL39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BM39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BN39" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BO39" s="15" t="str">
+        <f t="shared" ref="BO39:DZ39" si="7">IFERROR(_xlfn.STDEV.P(BO7:BO37),"")</f>
+        <v/>
+      </c>
+      <c r="BP39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BQ39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BR39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BS39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BT39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BU39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BV39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BW39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BX39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BY39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BZ39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CA39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CB39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CC39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CD39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CE39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CF39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CG39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CH39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CI39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CJ39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CK39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CL39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CM39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CN39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CO39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CP39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CQ39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CR39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CS39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CT39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CU39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CV39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CW39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CX39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CY39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="CZ39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DA39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DB39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DC39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DD39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DE39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DF39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DG39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DH39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DI39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DJ39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DK39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DL39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DM39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DN39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DO39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DP39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DQ39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DR39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DS39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DT39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DU39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DV39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DW39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DX39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DY39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DZ39" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="EA39" s="15" t="str">
+        <f t="shared" ref="EA39:GL39" si="8">IFERROR(_xlfn.STDEV.P(EA7:EA37),"")</f>
+        <v/>
+      </c>
+      <c r="EB39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EC39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="ED39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EE39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EF39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EG39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EH39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EI39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EJ39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EK39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EL39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EM39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EN39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EO39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EP39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EQ39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="ER39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="ES39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="ET39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EU39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EV39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EW39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EX39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EY39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="EZ39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FA39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FB39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FC39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FD39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FE39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FF39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FG39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FH39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FI39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FJ39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FK39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FL39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FM39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FN39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FO39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FP39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FQ39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FR39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FS39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FT39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FU39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FV39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FW39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FX39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FY39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="FZ39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="GA39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="GB39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="GC39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="GD39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="GE39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="GF39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="GG39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="GH39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="GI39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="GJ39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="GK39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="GL39" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="GM39" s="15" t="str">
+        <f t="shared" ref="GM39:IX39" si="9">IFERROR(_xlfn.STDEV.P(GM7:GM37),"")</f>
+        <v/>
+      </c>
+      <c r="GN39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="GO39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="GP39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="GQ39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="GR39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="GS39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="GT39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="GU39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="GV39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="GW39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="GX39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="GY39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="GZ39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HA39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HB39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HC39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HD39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HE39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HF39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HG39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HH39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HI39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HJ39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HK39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HL39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HM39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HN39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HO39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HP39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HQ39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HR39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HS39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HT39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HU39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HV39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HW39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HX39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HY39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="HZ39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IA39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IB39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IC39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="ID39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IE39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IF39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IG39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IH39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="II39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IJ39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IK39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IL39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IM39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IN39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IO39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IP39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IQ39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IR39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IS39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IT39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IU39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IV39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IW39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IX39" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="IY39" s="15" t="str">
+        <f t="shared" ref="IY39:LJ39" si="10">IFERROR(_xlfn.STDEV.P(IY7:IY37),"")</f>
+        <v/>
+      </c>
+      <c r="IZ39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JA39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JB39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JC39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JD39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JE39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JF39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JG39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JH39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JI39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JJ39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JK39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JL39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JM39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JN39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JO39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JP39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JQ39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JR39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JS39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JT39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JU39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JV39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JW39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JX39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JY39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="JZ39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KA39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KB39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KC39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KD39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KE39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KF39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KG39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KH39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KI39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KJ39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KK39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KL39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KM39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KN39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KO39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KP39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KQ39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KR39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KS39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KT39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KU39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KV39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KW39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KX39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KY39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="KZ39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="LA39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="LB39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="LC39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="LD39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="LE39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="LF39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="LG39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="LH39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="LI39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="LJ39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="LK39" s="15" t="str">
+        <f t="shared" ref="LK39:LS39" si="11">IFERROR(_xlfn.STDEV.P(LK7:LK37),"")</f>
+        <v/>
+      </c>
+      <c r="LL39" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="LM39" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="LN39" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="LO39" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="LP39" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="LQ39" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="LR39" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="LS39" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="W2:IU2"/>
-    <mergeCell ref="IX3:JY3"/>
-    <mergeCell ref="JZ3:KQ3"/>
-    <mergeCell ref="IX2:JY2"/>
-    <mergeCell ref="JZ2:KQ2"/>
-    <mergeCell ref="GJ3:GY3"/>
-    <mergeCell ref="GZ3:HM3"/>
-    <mergeCell ref="HN3:IA3"/>
-    <mergeCell ref="IB3:IU3"/>
     <mergeCell ref="KR3:LR3"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="KR2:LS2"/>
@@ -48256,6 +50195,17 @@
     <mergeCell ref="CI3:DL3"/>
     <mergeCell ref="DM3:FE3"/>
     <mergeCell ref="FF3:GI3"/>
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="W2:IU2"/>
+    <mergeCell ref="IX3:JY3"/>
+    <mergeCell ref="JZ3:KQ3"/>
+    <mergeCell ref="IX2:JY2"/>
+    <mergeCell ref="JZ2:KQ2"/>
+    <mergeCell ref="GJ3:GY3"/>
+    <mergeCell ref="GZ3:HM3"/>
+    <mergeCell ref="HN3:IA3"/>
+    <mergeCell ref="IB3:IU3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
